--- a/테이블/테이블 원본/Table_v_1.2.5.xlsx
+++ b/테이블/테이블 원본/Table_v_1.2.5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vzzy9\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/21244820dc8376fa/문서/GitHub/Last-Night/테이블/테이블 원본/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55921DB-2784-4107-B309-4FB5D648DE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ITEM" sheetId="2" r:id="rId1"/>
@@ -2364,7 +2364,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2423,22 +2423,31 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2459,26 +2468,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2788,7 +2779,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11144,23 +11135,23 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20" t="s">
+      <c r="H8" s="24"/>
+      <c r="I8" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="20"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="1">
@@ -11229,7 +11220,7 @@
       <c r="E11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="36"/>
+      <c r="F11" s="2"/>
       <c r="I11" s="3">
         <v>2</v>
       </c>
@@ -11250,8 +11241,7 @@
       <c r="E12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="36"/>
-      <c r="I12" s="38"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="1">
@@ -11266,62 +11256,62 @@
       <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="36"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="32">
+      <c r="B14" s="20">
         <v>6</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="20" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="36"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="21" t="s">
         <v>529</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="36"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="2:10">
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="36"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="2:16">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="36"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="2:16">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="36"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="22" t="s">
+      <c r="C21" s="24"/>
+      <c r="D21" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="37"/>
-      <c r="I21" s="20" t="s">
+      <c r="E21" s="28"/>
+      <c r="F21" s="23"/>
+      <c r="I21" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
     </row>
     <row r="22" spans="2:16">
       <c r="B22" s="1">
@@ -11336,19 +11326,19 @@
       <c r="E22" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="36"/>
-      <c r="I22" s="21" t="s">
+      <c r="F22" s="2"/>
+      <c r="I22" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="J22" s="21"/>
-      <c r="K22" s="24" t="s">
+      <c r="J22" s="25"/>
+      <c r="K22" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
     </row>
     <row r="23" spans="2:16">
       <c r="B23" s="1">
@@ -11363,19 +11353,19 @@
       <c r="E23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="36"/>
-      <c r="I23" s="21" t="s">
+      <c r="F23" s="2"/>
+      <c r="I23" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="J23" s="21"/>
-      <c r="K23" s="24" t="s">
+      <c r="J23" s="25"/>
+      <c r="K23" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
     </row>
     <row r="24" spans="2:16">
       <c r="B24" s="1">
@@ -11394,59 +11384,67 @@
       </c>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="37"/>
-      <c r="I28" s="20" t="s">
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="23"/>
+      <c r="I28" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
     </row>
     <row r="29" spans="2:16">
       <c r="B29" s="1">
         <v>0</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="36"/>
-      <c r="I29" s="21" t="s">
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="2"/>
+      <c r="I29" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
     </row>
     <row r="30" spans="2:16">
       <c r="B30" s="1">
         <v>1</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="36"/>
-      <c r="I30" s="21" t="s">
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="2"/>
+      <c r="I30" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I21:P21"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
@@ -11456,14 +11454,6 @@
     <mergeCell ref="I28:M28"/>
     <mergeCell ref="I29:M29"/>
     <mergeCell ref="I30:M30"/>
-    <mergeCell ref="I21:P21"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11484,23 +11474,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="3" t="s">
         <v>70</v>
       </c>
@@ -11509,9 +11499,9 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="3" t="s">
         <v>72</v>
       </c>
@@ -11520,11 +11510,11 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="3" t="s">
         <v>70</v>
       </c>
@@ -11533,9 +11523,9 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="3" t="s">
         <v>76</v>
       </c>
@@ -11544,11 +11534,11 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="3" t="s">
         <v>70</v>
       </c>
@@ -11557,9 +11547,9 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="3" t="s">
         <v>72</v>
       </c>
@@ -11568,41 +11558,41 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="3" t="s">
         <v>70</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="G10" s="21"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="3" t="s">
         <v>70</v>
       </c>
@@ -11611,9 +11601,9 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="3" t="s">
         <v>72</v>
       </c>
@@ -11622,11 +11612,11 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="3" t="s">
         <v>70</v>
       </c>
@@ -11635,9 +11625,9 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="3" t="s">
         <v>72</v>
       </c>
@@ -11646,11 +11636,11 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="3" t="s">
         <v>70</v>
       </c>
@@ -11659,9 +11649,9 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="3" t="s">
         <v>72</v>
       </c>
@@ -11670,11 +11660,11 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="29" t="s">
         <v>473</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="3" t="s">
         <v>70</v>
       </c>
@@ -11683,9 +11673,9 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="3" t="s">
         <v>72</v>
       </c>
@@ -11695,16 +11685,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="A6:C7"/>
+    <mergeCell ref="A8:C9"/>
+    <mergeCell ref="A10:C11"/>
     <mergeCell ref="A18:C19"/>
     <mergeCell ref="A16:C17"/>
     <mergeCell ref="A14:C15"/>
     <mergeCell ref="A12:C13"/>
     <mergeCell ref="F10:G11"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="A6:C7"/>
-    <mergeCell ref="A8:C9"/>
-    <mergeCell ref="A10:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11940,7 +11930,7 @@
       <c r="D11" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="22">
         <v>0</v>
       </c>
     </row>
@@ -11958,7 +11948,7 @@
       <c r="D12" s="3">
         <v>1</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="22">
         <v>0</v>
       </c>
     </row>
@@ -11976,7 +11966,7 @@
       <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="22">
         <v>0</v>
       </c>
     </row>
@@ -11994,7 +11984,7 @@
       <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="22">
         <v>0</v>
       </c>
     </row>
@@ -12012,7 +12002,7 @@
       <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="22">
         <v>0</v>
       </c>
     </row>
@@ -12030,7 +12020,7 @@
       <c r="D16" s="3">
         <v>1</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="22">
         <v>0</v>
       </c>
     </row>
@@ -12048,7 +12038,7 @@
       <c r="D17" s="3">
         <v>1</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="22">
         <v>0</v>
       </c>
     </row>
@@ -12066,7 +12056,7 @@
       <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="22">
         <v>0</v>
       </c>
     </row>
@@ -12084,7 +12074,7 @@
       <c r="D19" s="3">
         <v>1</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="22">
         <v>0</v>
       </c>
     </row>
@@ -12102,7 +12092,7 @@
       <c r="D20" s="3">
         <v>1</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="22">
         <v>0</v>
       </c>
     </row>
@@ -12120,7 +12110,7 @@
       <c r="D21" s="3">
         <v>1</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="22">
         <v>0</v>
       </c>
     </row>
@@ -12138,7 +12128,7 @@
       <c r="D22" s="3">
         <v>1</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="22">
         <v>0</v>
       </c>
     </row>
@@ -12156,7 +12146,7 @@
       <c r="D23" s="3">
         <v>1</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="22">
         <v>0</v>
       </c>
     </row>
@@ -12174,7 +12164,7 @@
       <c r="D24" s="3">
         <v>1</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="22">
         <v>0</v>
       </c>
     </row>
@@ -12192,7 +12182,7 @@
       <c r="D25" s="3">
         <v>1</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="22">
         <v>0</v>
       </c>
     </row>
@@ -12204,10 +12194,10 @@
       <c r="B26" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="11">
         <v>4</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="22">
         <v>1</v>
       </c>
     </row>
@@ -12219,7 +12209,7 @@
       <c r="B27" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="22">
         <v>2</v>
       </c>
     </row>
@@ -12231,7 +12221,7 @@
       <c r="B28" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="22">
         <v>3</v>
       </c>
     </row>
@@ -12243,7 +12233,7 @@
       <c r="B29" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29" s="22">
         <v>4</v>
       </c>
     </row>
@@ -12255,7 +12245,7 @@
       <c r="B30" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E30" s="34">
+      <c r="E30" s="22">
         <v>5</v>
       </c>
     </row>
@@ -12326,7 +12316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82A9F54-8058-4624-AFFE-75B7854B6E59}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
@@ -13183,8 +13173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D62E413-8562-4B0A-81AC-8B3DB41B990E}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
